--- a/Testdata/TC_78.xlsx
+++ b/Testdata/TC_78.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>QxwAAB+LCAAAAAAAAAOlGdtuI0n1V1p+Agm72/ZkclGlV75l1sKOI9shm31B5e5K3KS72nRVJ/HbIoEWLYsQQrNouYqnRUgMI9iVlhku/7KaZIYnfoFTl77Zzk46jKJJ17nVqVPnWkHvXAe+cUki5oV0v1KvWRWDUCd0PXq+X4n5WbX+uPKOjXrXDvGPcIQDwoHYAC7K9q6Zt1+Zc77YM82rq6vaVbMWRudmw7Lq5nvDwcSZkwBXPco4pg6ppFzu27kqNuq4wZBw7GKOFed+pT/p1zrEc7oAG2KKz0lUa8fMo4SxHuUe9wgTnBHBnHS6w++og9mN2uNaHZlr8IyyHXu+q+gKlAqu6WBbMvUCYjes+k7V2q1azam1tdds7DW3a7u7jfcTxpQQDTDjExJdeo4ETDgOFpLd2rWa1laz0dxG5kYikJUZwEYj3x2TS48Rt0N8n5WyiKkvsOVwOHU5Y1rIzPFqQQ9X4UmEF/Opx31STo3xsG0EVOuSCbHRQRgRB+z3IJUOydUo0madLgaAnc69iC+7eFla1jEj0WghjFSO1UbdkPKWTyJ+vIC7Ji64AiBsHsUEmXcgM6auxxz49mhMXPsM+yzPVECikzC6YAvskEOIY1PIuKJ+iF1wOO4x7jnZpmsIdBSFC5AIm7dD3z0AqZp4AyKV3KdgYrFtOwwvMu02IZG8VXm/cKcB5gn5GhxN5uHViPrLSTxjTuTNiNttJ9QbcUgEpObuxIyHAWiRgZCC5SBL+AcBuApGXeJ4AfaPfDAis5sgpQBArZiHZx7vhH4cUJbotAJFJ3CiKblOT5iu0Qgulwqjh7RPE3pl5o2oIsM4vEr3XEdII+TALeYk172OWCXuAiy5vnWMvBFxygPPh/qQv4sctOgVkzkhfKNLKAwSqfBAVBy7vRR7IjODIPBM8G6A2vXd3e2qVYefqWXtyR/YOUWjHnXlB9SXx9V6o9rM0yVIdBgHoxlE8KU8k10H3AoIwSn8to/pBUBPPD4/bCXab8AgdeY76ddxCGJ14eOlBKd2ycNQnzp+7BKVAvr0TDql0E1d451otAYaQFTbCNPldLmATMy8PQ4f+xWozXuMR1D9K7YTxpRHS5ErkKlJ38bD4hmVG2D/3jxnEfl+DE3H8iCmTid077+bq6xzTD1+fw3DOFIJ8P4s0noiF8asS0RWkWn+3vxOmTOxqBR5QEkQUs+5v7XByEJ79wEHYUlU5TjMO3yrS85w7ENbw6H6nKdpaRWMWuxilSYPQseRnyQHWzSNDLpGxw1qDtRV0RnVnDAQABOatZMJMvP0ojlwSI+eDzA9j6H8pgG4Ck9Tkygd0whTJo6TVtuVLLWZCCUBrboAW0X5KJYWU1EeAhaZK3RoSoJFGGF/CIbxDvT96FYCqvQQ87leQdr3iZMY2cxYU66iZonibyOT+VsdQ0SGzicrQEkkzqL601yOz4BIHHMIDux3sO/NIpV/kjK3CQc3ljVOSaYSpyvZRCWXAEMKVKZvk6XoXLOFhkufrScI5cEi5diT8aOdxpbVbEDVF2skjzwm2Dd64PacGH16SRgPgG3PGBPmufDlYX/PeJfMiAflQtpIJ+zS3Hk+dJBkRKlKC/QtQooEUIvPPUi464QpJmOwTwmO/GWOUB11EDpAd/vjf9/85vmrF5/dfvT0zRc//O8/fvXqnz+7efYj+Lj9699uPv6lOqYiRlM884lUaNre2bGaj8DRUhASxjVl2+jGDpew01PZLaZrpIceuej0+p0ng7ZMKCkwYVfJ1xTz1DKMs+VEHUJuJK/UTDxBkdjTJEHpdQGbS+a2mG8uSZE6j7+LUdni9cvPXr/8853c2mCFpmVLNCNvb1rq9TW6tGkRc6MaC5Kp9FHV2qo2GjniFRo0huEapoDUTn3XbtZhGG00rXqazN3UkTcRraK0pCk+N1f4FKijGonUBfLrBCkdfwohkqJVKOQW2kW/+MmbvzwtUGnrakhRCignC77YzEwWUvTheGpMRsfjTs+Y9ibCTzJcjk4J/xpivXsaTwWnojTG/rcMQsWDilGBaaFihGcGwc7cWEIk5uKw4GyboGqjB4pc1fJJFMYLdSM5hgy6gTLNJhs5NuQaiZP2XEs6GWoDudL15u+fb2LQB+lmrV/6NpCHoQJGgXJ4HbWf/uvVlx++evHi9vnPb778QUGC3icdmcHPIZryy9TtIeXperMCQScTacwL67u5+qKBYuQ4Cj3KmV1/LKcNvULAWhfS5G/UD6DkScHSXgBfgaB3Metdcx3Y9iEyiwDQc4Gh2obZXJYCVA7P7Pqf3/7u9tef337y/M2Hf7r56I83H3/y+uXv3zz7g4q626fPb3/6TGf51UIgdRHTnuoCDfl24BgiGg1Ru42vPviFQUNuQM9hxDIjffXBpzlhQlHZnWSSoadLFSmqsEaaZxZ8Rk6VVIcCX8qiGoCOKGHNlEIXsXDhOdkm71eFKBF3EvGN/rQaM2KE0E59E05SJM6Y78unWVRJPdq2GvWGxiptxBFmmOVM/8QPZ9BkJAg5nK+QFLi+niGjlfs9GYzarUFGopQYRS7M8pZ4YRAfKOkpRUnps2SVuFoOAlho/JzYF+8pa2TrqFRyLo2Z+mHirOWK9Gdblpz8i/WxQIE6cRSphojqd+5JvIBuOHm+uhsvn/RyDfCh6lXzLXG27neLeFjnsFAIi2gBkHiZmjRKpak+E28gqp09FKbJloArPAOCOfRTtuq0LqGvjEyRd3pRFEYbk0+GSciG0ElDRjEzi6c08k5V1+1md5UAkoSXfqjRT58w7BKf8HLvvGbGPQwvH8wLd1+Wtc9GvquNWW70SM2SCcg/dgtH+X/fupWztaIIGivxOFb6cTqZXMcw8JbURh1FMooREHbXr8cHXsT4eyIT6C8FOU0hp6pDlSTqQ65P7aYGAIGZl24W1ExCl6s/OYT+wAu8kmOhlcR3UQjYcrFQLVy/nKeI0nJIrqHBzEmApDj7HpQN9XRSRppyWMilKb945WPe+ZyXVWx7holLZlbVmZFG9ZFr7VR3CWlW63X4HzuNhmVtiTdCLRwyh0euSm5iJheW/SnQ/h+Xl9fgQxwAAA==</t>
+          <t>PB4AAB+LCAAAAAAAAAOlGdtuI0n1V1p+AgmnL3YySVTpVXxJ1sKJo9ghm31B5e5yUqRdbbq6k/htkUCLlkUIoVm0XMXTIiSGEexKywyXf1lNMsMTv8CpS99sZycdRpGm69zq1KlzLaN3bqaBcUUiTkO2U7PXrJpBmBf6lJ3v1JJ4Urc3au+4qHvjkeAIR3hKYiA2gIvx7RtOd2oXcTzbNs3r6+u168ZaGJ2bjmXZ5nsH/aF3Qaa4ThmPMfNILePy385Vc1Hbnx6QGPs4xopzp9Yb9tbahHodgB1ghs9JtNZKOGWE8y6LaUwJF5wRwTFpdw6+ow7mOmsbazYyl+A5ZSuhga/oSpQKrulgWzKiU+I6lmPVrc260xxZG9uNrW2nubbe2Hw/ZcwIUR/zeEiiK+pJwDDG05lktzadprXR2HKayFxJBLJyA7hoEPjH5Ipy4rdJEPBKFjH1Be56MZy6mjEtZBZ4taDHq7Af4dnFiMYBqcq+F0bEA0M9au9Dcj2ItP1Gsz5gRxc0iucdPK8s64STaDAT1qjG6qJOyOLdgETxyQwulfhw54Bw4yghyLwHmTN1KPfgm7KE+O4EB7zIVEKi0zC65DPskUMIWFPIuGZBiH3wrJjymHr5pksIdBSFM5AIm7fCwN8DqZp4BSKT3GNgYrFtKwwvc+1WIZH0AekNcKdTHKfkS3A0vAivByyYD5Mx9yI6Jn6nlVKvxCEReZq7nfA4nIIWOQgpWAEyh38QaYtg1CEeneLgKAAjcrcBUkoAtJvE4YTG7TBIpoynOi1A0SmcaERushNmazSAy2XC6CHrsZRemXklqsxwHF5ney4jpBEK4F3upde9jFgk7gAsvb5ljLwRcco9GkAhKN5FAVr2iuEFIfFKl1AYJHLenigtbmsu9kRmDkHgmeDdAIWsaW3U4c+xRpa1Lf9g5wyNuszP6Wyn3rALdCkSHSbTwRgi+EqeybUBtwBCcIqgFWB2CdBTGl8c7qbar8AgdeZ76ZdxCGJ1FuC5BGd2KcJQj3lB4hOVAnpsIp1S6Kau8V40WgL1IapdhNl8NJ9ByuV0O4aPnRoU4W0eR1Dma64XJiyO5iJXIFOTvo2HJ2MmN8DBg3kmEfl+At3FfC9hXjv0H76br6xzwmj8cA3DJFIJ8OEs0noiFya8Q0RWkWn+wfxelTPxqBL5lJFpyKj3cGuDkYX2/iMOwtOoKnCY9/hWh0xwEkD/EkP1Oc/S0iIY7fLLRZoiCJ1EQZocXNEdcmgPPX+65kFdFS3QmhdOBcCErux0iMwivWgOPNJl533MzhMov1kALsKz1CRKxyjCjIvjZNV2IUutJkJpQKsuwFVRPkikxVSUh4BF5gIdGpHpLIxwcACGoXv6fnQrAVX6AMcXegVpPyBeamQzZ824ypqlir+NTOZvdQwRGTqfLAAlkTiLakQLOT4HInHMA3DgoI0DOo5U/knL3Coc3FjeOKWZSpyuYhOVXgJMI1CZvk3mokXNFxoufdZOEcqDRcpxh8fNTWfdajhQ9cUaySMfExwYXXD7mBg9dkV4PAW2beOYcOrDF8XBtvEuGRMK5ULaSCfsytxFPrSXZkSpyi7oW4aUCaAWn1NIuMuEGSZncM8IjoJ5gVAdtR96QHf343/f/ub5qxef3X309M0XP/zvP3716p8/u332I/i4++vfbj/+pTqmIkYjPA6IVGjU2ty0GjCy5CAkjGvKttFPvFjCzs5kt5itkZ5u5KLd7bX3+y2ZUDJgyq6SrykGp3mY5MuhOoTcSF6pmXqCInFHaYLS6xK2kMxdMchckTJ1EX8fo7LF65efvX7553u5tcHyrsTe2loXzYhlv61pse0luqxpEQOiGgv0+Gk369Z63XEKxAs06BimaJgCMjv1fLdhW1uW07DsLJn7mSOvIlpEaUkjfG4u8ClQWzUSmQsU1ylSOv4IQiRDq1AoLLSLfvGTN395WqLS1tWQshRQThZ8sZmZLqTow+ORMRycHLe7xqg7FH6S4wp0SvjXEOvds3gqORVjCQ6+ZRAmXk6MGkwLNSOcGAR7F8YcIrEQhyVnWwVVGz1S5KKW+1GYzNSNFBhy6ArKLJus5FiRayRO2nMp6eSoFeRK19u/f76KQR+kk7d+7vFBy5iyzC8lDJUwClTA66j99F+vvvzw1YsXd89/fvvlD0oS9D7ZyAx+DtFUXGZuDylP15sFCDodSmNeWt8t1BcNFCPHUUhZzF17Q04beoWA1RbS5P+oN4WSJwVLewF8AYLexbx7E+vAdg+RWQaAnjMM1TbM57IMoHJ4btf//PZ3d7/+/O6T528+/NPtR3+8/fiT1y9//+bZH1TU3T19fvfTZzrLLxYCqYuY9lQXaMi3A88Q0WiI2m189cEvDBbGBvQcRiIz0lcffFoQJhSV3UkuGXq6TJGyCkukRWbBZxRUyXQo8WUsqgFoixLWyCh0EQtn1Ms3eb8uRIm4k4hv9Eb1hBMjhHbqm3CSMnHO/FA+zaJK6tETy7EdjVXaiCOMMS+Yfj8Ix9BkpAg5nC+QlLi+niGnlfvt9wet3X5OopQYRD7M8pZ4YRAfqMfTrjJ1rwIEsNDseUkg3lCWyJZRKP0qpC5TP0ZMdn2R8lzLsuy6/CuUuRIFaidRpJogph+xh8kMOuD0yep+vHzGKzS9h6o/LbbB+brXKeNhXcBC8SujBUDiZTrSKJWaely8e6gW9lCYJl8CrvT0B+bQ79Squ7qCXjIyRa7pRlEYrUw4OSYlO4DuGbKImVs8ozHFlqrT9vO7SgFpkss+1LinTxh2SEDiyo+4KfdBePVoXrj7qqw9Pgh8bcxq40ZmllxA8SVbOEpVZXajCNom8fRV+em5T9llr9rpXeJsNTfwxLEbvr3ZfLJljf0nG5u42Wx6trUOeVAJFeOnECEmFzG7VdsEmsUyez5oH8PoXVGaMrBkFMMoWEoGpE7s2Rrt0YjH74kUpb8U5CyDnKnWWZKoD7k+cx1HAYDALG5mlrRO80usfvQIgz6d0orzqpUmobIQcIPZTPWWVS8Uat4huYHOtyABsvX4e1DP1JtOFWkqqiDJZ/yprGEyrizOTJmPAC8c63HcXR/6ssdzy58QaPB/KCA7r8eK6DFOzy/iqvfqbG01yAZx6s7E8+pNWNShGo/rPp5s2ZY1afjrjnj71cKhOlByXXETUVMoh7miOp+58Buw+z8LqUlFPB4AAA==</t>
         </r>
       </text>
     </comment>
@@ -40,7 +40,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -85,13 +85,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -387,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,37 +464,37 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>15733.82555555556</v>
+        <v>37962.97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>139798646.1781028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>11823.64775262282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>0.951248095277063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>-0.1855642624124751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>0.7514795248538862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>3271.34</v>
+        <v>37962.97</v>
       </c>
     </row>
     <row r="20">
@@ -503,56 +504,16 @@
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>10540.67</v>
+        <v>37962.97</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4">
-        <v>3271.34</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4">
-        <v>6384.48</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4">
-        <v>7111.74</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4">
-        <v>8354.02</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4">
-        <v>10540.67</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4">
-        <v>16421.36</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4">
-        <v>22352.63</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4">
-        <v>29205.22</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4">
+      <c r="A23" s="5">
         <v>37962.97</v>
       </c>
     </row>
@@ -560,4 +521,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>23</EndRow>
+          <EndCol>1</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C72B86FB-6CE6-4228-87BB-4A82F4E6BEA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_78.xlsx
+++ b/Testdata/TC_78.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>PB4AAB+LCAAAAAAAAAOlGdtuI0n1V1p+AgmnL3YySVTpVXxJ1sKJo9ghm31B5e5yUqRdbbq6k/htkUCLlkUIoVm0XMXTIiSGEexKywyXf1lNMsMTv8CpS99sZycdRpGm69zq1KlzLaN3bqaBcUUiTkO2U7PXrJpBmBf6lJ3v1JJ4Urc3au+4qHvjkeAIR3hKYiA2gIvx7RtOd2oXcTzbNs3r6+u168ZaGJ2bjmXZ5nsH/aF3Qaa4ThmPMfNILePy385Vc1Hbnx6QGPs4xopzp9Yb9tbahHodgB1ghs9JtNZKOGWE8y6LaUwJF5wRwTFpdw6+ow7mOmsbazYyl+A5ZSuhga/oSpQKrulgWzKiU+I6lmPVrc260xxZG9uNrW2nubbe2Hw/ZcwIUR/zeEiiK+pJwDDG05lktzadprXR2HKayFxJBLJyA7hoEPjH5Ipy4rdJEPBKFjH1Be56MZy6mjEtZBZ4taDHq7Af4dnFiMYBqcq+F0bEA0M9au9Dcj2ItP1Gsz5gRxc0iucdPK8s64STaDAT1qjG6qJOyOLdgETxyQwulfhw54Bw4yghyLwHmTN1KPfgm7KE+O4EB7zIVEKi0zC65DPskUMIWFPIuGZBiH3wrJjymHr5pksIdBSFM5AIm7fCwN8DqZp4BSKT3GNgYrFtKwwvc+1WIZH0AekNcKdTHKfkS3A0vAivByyYD5Mx9yI6Jn6nlVKvxCEReZq7nfA4nIIWOQgpWAEyh38QaYtg1CEeneLgKAAjcrcBUkoAtJvE4YTG7TBIpoynOi1A0SmcaERushNmazSAy2XC6CHrsZRemXklqsxwHF5ney4jpBEK4F3upde9jFgk7gAsvb5ljLwRcco9GkAhKN5FAVr2iuEFIfFKl1AYJHLenigtbmsu9kRmDkHgmeDdAIWsaW3U4c+xRpa1Lf9g5wyNuszP6Wyn3rALdCkSHSbTwRgi+EqeybUBtwBCcIqgFWB2CdBTGl8c7qbar8AgdeZ76ZdxCGJ1FuC5BGd2KcJQj3lB4hOVAnpsIp1S6Kau8V40WgL1IapdhNl8NJ9ByuV0O4aPnRoU4W0eR1Dma64XJiyO5iJXIFOTvo2HJ2MmN8DBg3kmEfl+At3FfC9hXjv0H76br6xzwmj8cA3DJFIJ8OEs0noiFya8Q0RWkWn+wfxelTPxqBL5lJFpyKj3cGuDkYX2/iMOwtOoKnCY9/hWh0xwEkD/EkP1Oc/S0iIY7fLLRZoiCJ1EQZocXNEdcmgPPX+65kFdFS3QmhdOBcCErux0iMwivWgOPNJl533MzhMov1kALsKz1CRKxyjCjIvjZNV2IUutJkJpQKsuwFVRPkikxVSUh4BF5gIdGpHpLIxwcACGoXv6fnQrAVX6AMcXegVpPyBeamQzZ824ypqlir+NTOZvdQwRGTqfLAAlkTiLakQLOT4HInHMA3DgoI0DOo5U/knL3Coc3FjeOKWZSpyuYhOVXgJMI1CZvk3mokXNFxoufdZOEcqDRcpxh8fNTWfdajhQ9cUaySMfExwYXXD7mBg9dkV4PAW2beOYcOrDF8XBtvEuGRMK5ULaSCfsytxFPrSXZkSpyi7oW4aUCaAWn1NIuMuEGSZncM8IjoJ5gVAdtR96QHf343/f/ub5qxef3X309M0XP/zvP3716p8/u332I/i4++vfbj/+pTqmIkYjPA6IVGjU2ty0GjCy5CAkjGvKttFPvFjCzs5kt5itkZ5u5KLd7bX3+y2ZUDJgyq6SrykGp3mY5MuhOoTcSF6pmXqCInFHaYLS6xK2kMxdMchckTJ1EX8fo7LF65efvX7553u5tcHyrsTe2loXzYhlv61pse0luqxpEQOiGgv0+Gk369Z63XEKxAs06BimaJgCMjv1fLdhW1uW07DsLJn7mSOvIlpEaUkjfG4u8ClQWzUSmQsU1ylSOv4IQiRDq1AoLLSLfvGTN395WqLS1tWQshRQThZ8sZmZLqTow+ORMRycHLe7xqg7FH6S4wp0SvjXEOvds3gqORVjCQ6+ZRAmXk6MGkwLNSOcGAR7F8YcIrEQhyVnWwVVGz1S5KKW+1GYzNSNFBhy6ArKLJus5FiRayRO2nMp6eSoFeRK19u/f76KQR+kk7d+7vFBy5iyzC8lDJUwClTA66j99F+vvvzw1YsXd89/fvvlD0oS9D7ZyAx+DtFUXGZuDylP15sFCDodSmNeWt8t1BcNFCPHUUhZzF17Q04beoWA1RbS5P+oN4WSJwVLewF8AYLexbx7E+vAdg+RWQaAnjMM1TbM57IMoHJ4btf//PZ3d7/+/O6T528+/NPtR3+8/fiT1y9//+bZH1TU3T19fvfTZzrLLxYCqYuY9lQXaMi3A88Q0WiI2m189cEvDBbGBvQcRiIz0lcffFoQJhSV3UkuGXq6TJGyCkukRWbBZxRUyXQo8WUsqgFoixLWyCh0EQtn1Ms3eb8uRIm4k4hv9Eb1hBMjhHbqm3CSMnHO/FA+zaJK6tETy7EdjVXaiCOMMS+Yfj8Ix9BkpAg5nC+QlLi+niGnlfvt9wet3X5OopQYRD7M8pZ4YRAfqMfTrjJ1rwIEsNDseUkg3lCWyJZRKP0qpC5TP0ZMdn2R8lzLsuy6/CuUuRIFaidRpJogph+xh8kMOuD0yep+vHzGKzS9h6o/LbbB+brXKeNhXcBC8SujBUDiZTrSKJWaely8e6gW9lCYJl8CrvT0B+bQ79Squ7qCXjIyRa7pRlEYrUw4OSYlO4DuGbKImVs8ozHFlqrT9vO7SgFpkss+1LinTxh2SEDiyo+4KfdBePVoXrj7qqw9Pgh8bcxq40ZmllxA8SVbOEpVZXajCNom8fRV+em5T9llr9rpXeJsNTfwxLEbvr3ZfLJljf0nG5u42Wx6trUOeVAJFeOnECEmFzG7VdsEmsUyez5oH8PoXVGaMrBkFMMoWEoGpE7s2Rrt0YjH74kUpb8U5CyDnKnWWZKoD7k+cx1HAYDALG5mlrRO80usfvQIgz6d0orzqpUmobIQcIPZTPWWVS8Uat4huYHOtyABsvX4e1DP1JtOFWkqqiDJZ/yprGEyrizOTJmPAC8c63HcXR/6ssdzy58QaPB/KCA7r8eK6DFOzy/iqvfqbG01yAZx6s7E8+pNWNShGo/rPp5s2ZY1afjrjnj71cKhOlByXXETUVMoh7miOp+58Buw+z8LqUlFPB4AAA==</t>
+          <t>QxwAAB+LCAAAAAAAAAOlGdtuI0n1V1p+Agm72/ZkclGlV75l1sKOI9shm31B5e5K3KS72nRVJ/HbIoEWLYsQQrNouYqnRUgMI9iVlhku/7KaZIYnfoFTl77Zzk46jKJJ17nVqVPnWkHvXAe+cUki5oV0v1KvWRWDUCd0PXq+X4n5WbX+uPKOjXrXDvGPcIQDwoHYAC7K9q6Zt1+Zc77YM82rq6vaVbMWRudmw7Lq5nvDwcSZkwBXPco4pg6ppFzu27kqNuq4wZBw7GKOFed+pT/p1zrEc7oAG2KKz0lUa8fMo4SxHuUe9wgTnBHBnHS6w++og9mN2uNaHZlr8IyyHXu+q+gKlAqu6WBbMvUCYjes+k7V2q1azam1tdds7DW3a7u7jfcTxpQQDTDjExJdeo4ETDgOFpLd2rWa1laz0dxG5kYikJUZwEYj3x2TS48Rt0N8n5WyiKkvsOVwOHU5Y1rIzPFqQQ9X4UmEF/Opx31STo3xsG0EVOuSCbHRQRgRB+z3IJUOydUo0madLgaAnc69iC+7eFla1jEj0WghjFSO1UbdkPKWTyJ+vIC7Ji64AiBsHsUEmXcgM6auxxz49mhMXPsM+yzPVECikzC6YAvskEOIY1PIuKJ+iF1wOO4x7jnZpmsIdBSFC5AIm7dD3z0AqZp4AyKV3KdgYrFtOwwvMu02IZG8VXm/cKcB5gn5GhxN5uHViPrLSTxjTuTNiNttJ9QbcUgEpObuxIyHAWiRgZCC5SBL+AcBuApGXeJ4AfaPfDAis5sgpQBArZiHZx7vhH4cUJbotAJFJ3CiKblOT5iu0Qgulwqjh7RPE3pl5o2oIsM4vEr3XEdII+TALeYk172OWCXuAiy5vnWMvBFxygPPh/qQv4sctOgVkzkhfKNLKAwSqfBAVBy7vRR7IjODIPBM8G6A2vXd3e2qVYefqWXtyR/YOUWjHnXlB9SXx9V6o9rM0yVIdBgHoxlE8KU8k10H3AoIwSn8to/pBUBPPD4/bCXab8AgdeY76ddxCGJ14eOlBKd2ycNQnzp+7BKVAvr0TDql0E1d451otAYaQFTbCNPldLmATMy8PQ4f+xWozXuMR1D9K7YTxpRHS5ErkKlJ38bD4hmVG2D/3jxnEfl+DE3H8iCmTid077+bq6xzTD1+fw3DOFIJ8P4s0noiF8asS0RWkWn+3vxOmTOxqBR5QEkQUs+5v7XByEJ79wEHYUlU5TjMO3yrS85w7ENbw6H6nKdpaRWMWuxilSYPQseRnyQHWzSNDLpGxw1qDtRV0RnVnDAQABOatZMJMvP0ojlwSI+eDzA9j6H8pgG4Ck9Tkygd0whTJo6TVtuVLLWZCCUBrboAW0X5KJYWU1EeAhaZK3RoSoJFGGF/CIbxDvT96FYCqvQQ87leQdr3iZMY2cxYU66iZonibyOT+VsdQ0SGzicrQEkkzqL601yOz4BIHHMIDux3sO/NIpV/kjK3CQc3ljVOSaYSpyvZRCWXAEMKVKZvk6XoXLOFhkufrScI5cEi5diT8aOdxpbVbEDVF2skjzwm2Dd64PacGH16SRgPgG3PGBPmufDlYX/PeJfMiAflQtpIJ+zS3Hk+dJBkRKlKC/QtQooEUIvPPUi464QpJmOwTwmO/GWOUB11EDpAd/vjf9/85vmrF5/dfvT0zRc//O8/fvXqnz+7efYj+Lj9699uPv6lOqYiRlM884lUaNre2bGaj8DRUhASxjVl2+jGDpew01PZLaZrpIceuej0+p0ng7ZMKCkwYVfJ1xTz1DKMs+VEHUJuJK/UTDxBkdjTJEHpdQGbS+a2mG8uSZE6j7+LUdni9cvPXr/8853c2mCFpmVLNCNvb1rq9TW6tGkRc6MaC5Kp9FHV2qo2GjniFRo0huEapoDUTn3XbtZhGG00rXqazN3UkTcRraK0pCk+N1f4FKijGonUBfLrBCkdfwohkqJVKOQW2kW/+MmbvzwtUGnrakhRCignC77YzEwWUvTheGpMRsfjTs+Y9ibCTzJcjk4J/xpivXsaTwWnojTG/rcMQsWDilGBaaFihGcGwc7cWEIk5uKw4GyboGqjB4pc1fJJFMYLdSM5hgy6gTLNJhs5NuQaiZP2XEs6GWoDudL15u+fb2LQB+lmrV/6NpCHoQJGgXJ4HbWf/uvVlx++evHi9vnPb778QUGC3icdmcHPIZryy9TtIeXperMCQScTacwL67u5+qKBYuQ4Cj3KmV1/LKcNvULAWhfS5G/UD6DkScHSXgBfgaB3Metdcx3Y9iEyiwDQc4Gh2obZXJYCVA7P7Pqf3/7u9tef337y/M2Hf7r56I83H3/y+uXv3zz7g4q626fPb3/6TGf51UIgdRHTnuoCDfl24BgiGg1Ru42vPviFQUNuQM9hxDIjffXBpzlhQlHZnWSSoadLFSmqsEaaZxZ8Rk6VVIcCX8qiGoCOKGHNlEIXsXDhOdkm71eFKBF3EvGN/rQaM2KE0E59E05SJM6Y78unWVRJPdq2GvWGxiptxBFmmOVM/8QPZ9BkJAg5nK+QFLi+niGjlfs9GYzarUFGopQYRS7M8pZ4YRAfKOkpRUnps2SVuFoOAlho/JzYF+8pa2TrqFRyLo2Z+mHirOWK9Gdblpz8i/WxQIE6cRSphojqd+5JvIBuOHm+uhsvn/RyDfCh6lXzLXG27neLeFjnsFAIi2gBkHiZmjRKpak+E28gqp09FKbJloArPAOCOfRTtuq0LqGvjEyRd3pRFEYbk0+GSciG0ElDRjEzi6c08k5V1+1md5UAkoSXfqjRT58w7BKf8HLvvGbGPQwvH8wLd1+Wtc9GvquNWW70SM2SCcg/dgtH+X/fupWztaIIGivxOFb6cTqZXMcw8JbURh1FMooREHbXr8cHXsT4eyIT6C8FOU0hp6pDlSTqQ65P7aYGAIGZl24W1ExCl6s/OYT+wAu8kmOhlcR3UQjYcrFQLVy/nKeI0nJIrqHBzEmApDj7HpQN9XRSRppyWMilKb945WPe+ZyXVWx7holLZlbVmZFG9ZFr7VR3CWlW63X4HzuNhmVtiTdCLRwyh0euSm5iJheW/SnQ/h+Xl9fgQxwAAA==</t>
         </r>
       </text>
     </comment>
@@ -40,7 +40,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -85,14 +85,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -388,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,37 +463,37 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>37962.97</v>
+        <v>15733.82555555556</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>0</v>
+        <v>139798646.1781028</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>11823.64775262282</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>0</v>
+        <v>0.951248095277063</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>-0.1855642624124751</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>0</v>
+        <v>0.7514795248538862</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>37962.97</v>
+        <v>3271.34</v>
       </c>
     </row>
     <row r="20">
@@ -504,16 +503,56 @@
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>37962.97</v>
+        <v>10540.67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
+        <v>3271.34</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4">
+        <v>6384.48</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4">
+        <v>7111.74</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4">
+        <v>8354.02</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4">
+        <v>10540.67</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4">
+        <v>16421.36</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4">
+        <v>22352.63</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4">
+        <v>29205.22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4">
         <v>37962.97</v>
       </c>
     </row>
@@ -521,37 +560,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>23</EndRow>
-          <EndCol>1</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C72B86FB-6CE6-4228-87BB-4A82F4E6BEA3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>